--- a/data/Sub_littoral_rock.xlsx
+++ b/data/Sub_littoral_rock.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\Development\R\meso-tool\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEBC44D-FD15-49CC-98AA-9ADC8FA9EF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28020" windowHeight="14355" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TestScenario" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Map_P_BA" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Map_BA_OP" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Map_OP_ES" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Legend" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="TestScenario" sheetId="1" r:id="rId1"/>
+    <sheet name="Map_P_BA" sheetId="2" r:id="rId2"/>
+    <sheet name="Map_BA_OP" sheetId="3" r:id="rId3"/>
+    <sheet name="Map_OP_ES" sheetId="4" r:id="rId4"/>
+    <sheet name="Legend" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -26,365 +31,362 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="117">
   <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substratum to Sed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penetrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wave exp change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SusSed change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contamination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species Removal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silt Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silt Heavy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth = 0, conf=1, layer=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guidance Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actiniaria immob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ascid and Tunic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bryozoans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydrozoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crinoids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard corals octocorals and seafans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boring Bivalves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Att Bival and brachi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encrust FF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actiniaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polychaetes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pred Crust</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pred Echino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pred Poly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pred Mollu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graz Echino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graz Gastro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graz Crusts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter all inputs in this section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=NR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid using hyphens or special characters wherever possible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistance weights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insensitive =  -0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High resistance =  -0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium resistance = -0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low resistance =  -0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No resistance =  -0.999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMBI scores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensitive  I = -0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairly sensitive II = -0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not so much really III = -0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Couldn't care less IV = -0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter all internal nodes in this section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal nodes shall also appear in the column headings as well.  Important to keep the same name (i.e. use copy and paste)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DO NOT enter output parameters under column heading, they will be ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter all link nodes in this section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No input paras need to be entered for link nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are input nodes which will also appear as an output, without additional processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biodeposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secondary production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitat provision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All input names should be the same as output names from the previous sheet (i.e. column names)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid using hyphens or special characters wherever possible.  R will replace them with full stops.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"the more the merrier"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=1  = full noise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0 = don't bother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale of 0 - 1 contnuously</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Substratum to Sed</t>
+  </si>
+  <si>
+    <t>Extract</t>
+  </si>
+  <si>
+    <t>Abrade</t>
+  </si>
+  <si>
+    <t>Penetrate</t>
+  </si>
+  <si>
+    <t>Wave exp change</t>
+  </si>
+  <si>
+    <t>SusSed change</t>
+  </si>
+  <si>
+    <t>Contamination</t>
+  </si>
+  <si>
+    <t>Species Removal</t>
+  </si>
+  <si>
+    <t>Silt Light</t>
+  </si>
+  <si>
+    <t>Silt Heavy</t>
+  </si>
+  <si>
+    <t>growth = 0, conf=1, layer=1</t>
+  </si>
+  <si>
+    <t>Guidance Notes</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Node Type</t>
+  </si>
+  <si>
+    <t>Kelp</t>
+  </si>
+  <si>
+    <t>Algae</t>
+  </si>
+  <si>
+    <t>Actiniaria immob</t>
+  </si>
+  <si>
+    <t>Ascid and Tunic</t>
+  </si>
+  <si>
+    <t>Porifera</t>
+  </si>
+  <si>
+    <t>Hydrozoa</t>
+  </si>
+  <si>
+    <t>Crinoids</t>
+  </si>
+  <si>
+    <t>Hard corals octocorals and seafans</t>
+  </si>
+  <si>
+    <t>Boring Bivalves</t>
+  </si>
+  <si>
+    <t>Att Bival and brachi</t>
+  </si>
+  <si>
+    <t>Encrust FF</t>
+  </si>
+  <si>
+    <t>Actiniaria</t>
+  </si>
+  <si>
+    <t>Pred Crust</t>
+  </si>
+  <si>
+    <t>Pred Echino</t>
+  </si>
+  <si>
+    <t>Pred Poly</t>
+  </si>
+  <si>
+    <t>Pred Mollu</t>
+  </si>
+  <si>
+    <t>Graz Echino</t>
+  </si>
+  <si>
+    <t>Graz Gastro</t>
+  </si>
+  <si>
+    <t>Graz Crusts</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=2</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=3</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=4</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=5</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=6</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=7</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=8</t>
+  </si>
+  <si>
+    <t>Enter all inputs in this section</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>imp=NR</t>
+  </si>
+  <si>
+    <t>imp=MR</t>
+  </si>
+  <si>
+    <t>imp=LR</t>
+  </si>
+  <si>
+    <t>imp=HR</t>
+  </si>
+  <si>
+    <t>Avoid using hyphens or special characters wherever possible.</t>
+  </si>
+  <si>
+    <t>Resistance weights</t>
+  </si>
+  <si>
+    <t>Insensitive =  -0.01</t>
+  </si>
+  <si>
+    <t>High resistance =  -0.2</t>
+  </si>
+  <si>
+    <t>Medium resistance = -0.75</t>
+  </si>
+  <si>
+    <t>Low resistance =  -0.95</t>
+  </si>
+  <si>
+    <t>imp=I</t>
+  </si>
+  <si>
+    <t>imp=III</t>
+  </si>
+  <si>
+    <t>imp=II</t>
+  </si>
+  <si>
+    <t>No resistance =  -0.999</t>
+  </si>
+  <si>
+    <t>AMBI scores</t>
+  </si>
+  <si>
+    <t>Sensitive  I = -0.2</t>
+  </si>
+  <si>
+    <t>Fairly sensitive II = -0.5</t>
+  </si>
+  <si>
+    <t>Not so much really III = -0.75</t>
+  </si>
+  <si>
+    <t>Couldn't care less IV = -0.95</t>
+  </si>
+  <si>
+    <t>Enter all internal nodes in this section</t>
+  </si>
+  <si>
+    <t>Internal nodes shall also appear in the column headings as well.  Important to keep the same name (i.e. use copy and paste)</t>
+  </si>
+  <si>
+    <t>DO NOT enter output parameters under column heading, they will be ignored</t>
+  </si>
+  <si>
+    <t>Link nodes</t>
+  </si>
+  <si>
+    <t>Enter all link nodes in this section</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>No input paras need to be entered for link nodes</t>
+  </si>
+  <si>
+    <t>Are input nodes which will also appear as an output, without additional processing</t>
+  </si>
+  <si>
+    <t>Biodeposition</t>
+  </si>
+  <si>
+    <t>Secondary production</t>
+  </si>
+  <si>
+    <t>Habitat provision</t>
+  </si>
+  <si>
+    <t>Primary Production</t>
+  </si>
+  <si>
+    <t>Input Nodes</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=9</t>
+  </si>
+  <si>
+    <t>imp=1</t>
+  </si>
+  <si>
+    <t>All input names should be the same as output names from the previous sheet (i.e. column names)</t>
+  </si>
+  <si>
+    <t>imp=0.75</t>
+  </si>
+  <si>
+    <t>imp=0.25</t>
+  </si>
+  <si>
+    <t>Avoid using hyphens or special characters wherever possible.  R will replace them with full stops.</t>
+  </si>
+  <si>
+    <t>imp=0.5</t>
+  </si>
+  <si>
+    <t>"the more the merrier"</t>
+  </si>
+  <si>
+    <t>imp=1  = full noise</t>
+  </si>
+  <si>
+    <t>imp=0 = don't bother</t>
+  </si>
+  <si>
+    <t>scale of 0 - 1 contnuously</t>
   </si>
   <si>
     <t xml:space="preserve">imp=0.75 </t>
   </si>
   <si>
-    <t xml:space="preserve">Internal Nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sediment stability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrient cycling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass Flows atten (CICES 5.2.1.1/2.2.1.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulation of Baseline Flows (CICES 2.2.1.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediation of Wastes (CICES 2.2.1.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nursery pop habitat (CICES 2.2.2.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild animals (CICES 1.1.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild Plants (CICES 1.1.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carbon sequestrn (CICES 2.2.6.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">growth=0, conf=1, layer=11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imp=0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">internal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pressures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macroalgae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attached active filter feeder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attached passive filter feeder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molluscs brachiopods attached crustacea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube builders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scavengers and predatory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grazing mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output processes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosystem functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecosystem services</t>
+    <t>Internal Nodes</t>
+  </si>
+  <si>
+    <t>Sediment stability</t>
+  </si>
+  <si>
+    <t>Nutrient cycling</t>
+  </si>
+  <si>
+    <t>Food resources</t>
+  </si>
+  <si>
+    <t>Mass Flows atten (CICES 5.2.1.1/2.2.1.2)</t>
+  </si>
+  <si>
+    <t>Regulation of Baseline Flows (CICES 2.2.1.1)</t>
+  </si>
+  <si>
+    <t>Mediation of Wastes (CICES 2.2.1.2)</t>
+  </si>
+  <si>
+    <t>Nursery pop habitat (CICES 2.2.2.3)</t>
+  </si>
+  <si>
+    <t>Wild animals (CICES 1.1.6)</t>
+  </si>
+  <si>
+    <t>Wild Plants (CICES 1.1.5)</t>
+  </si>
+  <si>
+    <t>Carbon sequestrn (CICES 2.2.6.1)</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=10</t>
+  </si>
+  <si>
+    <t>growth=0, conf=1, layer=11</t>
+  </si>
+  <si>
+    <t>imp=0.8</t>
+  </si>
+  <si>
+    <t>imp=0.95</t>
+  </si>
+  <si>
+    <t>internal</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Pressures</t>
+  </si>
+  <si>
+    <t>Macroalgae</t>
+  </si>
+  <si>
+    <t>Attached active filter feeder</t>
+  </si>
+  <si>
+    <t>Attached passive filter feeder</t>
+  </si>
+  <si>
+    <t>Molluscs brachiopods attached crustacea</t>
+  </si>
+  <si>
+    <t>Tube builders</t>
+  </si>
+  <si>
+    <t>Scavengers and predatory</t>
+  </si>
+  <si>
+    <t>Grazing mobile</t>
+  </si>
+  <si>
+    <t>Output processes</t>
+  </si>
+  <si>
+    <t>Ecosystem functions</t>
+  </si>
+  <si>
+    <t>Ecosystem services</t>
+  </si>
+  <si>
+    <t>Bryozoans</t>
+  </si>
+  <si>
+    <t>Polychaetes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -392,22 +394,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -531,351 +518,253 @@
     </fill>
   </fills>
   <borders count="7">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -934,39 +823,347 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="1" sqref="Q1 N9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="12" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="8.83"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" customWidth="1"/>
+    <col min="12" max="1022" width="8.7109375" customWidth="1"/>
+    <col min="1023" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -1034,60 +1231,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1095,43 +1242,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="59.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="14.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="19.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="20" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="25" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.83"/>
+    <col min="1" max="1" width="59.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="20" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" customWidth="1"/>
+    <col min="25" max="1018" width="8.7109375" customWidth="1"/>
+    <col min="1019" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="32" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:25" s="6" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -1157,868 +1300,868 @@
         <v>19</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" s="6" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:25" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="16"/>
       <c r="D2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="K2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="Q2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="18" t="s">
+      <c r="R2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="S2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="T2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="U2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="W2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="X2" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="G3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="H3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="I3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>44</v>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="F5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R5" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S5" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V5" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>44</v>
+      <c r="C6" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="S6" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>47</v>
-      </c>
       <c r="T6" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>44</v>
+      <c r="C7" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="F8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R8" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>44</v>
+      <c r="C9" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="U9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="V9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
+      </c>
+      <c r="X9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="V9" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="W9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="W10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>46</v>
-      </c>
       <c r="G11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W11" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="X11" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y11" s="26"/>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>46</v>
-      </c>
       <c r="E12" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="N12" s="20" t="s">
-        <v>47</v>
-      </c>
       <c r="O12" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="20" t="s">
-        <v>47</v>
-      </c>
       <c r="R12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="X12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="T12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="V12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="X12" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
@@ -2035,9 +2178,9 @@
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
@@ -2054,9 +2197,9 @@
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -2072,7 +2215,7 @@
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>13</v>
       </c>
@@ -2090,9 +2233,9 @@
       <c r="M16" s="26"/>
       <c r="O16" s="26"/>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -2108,9 +2251,9 @@
       <c r="M17" s="26"/>
       <c r="O17" s="26"/>
     </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -2126,9 +2269,9 @@
       <c r="M18" s="26"/>
       <c r="O18" s="26"/>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -2144,7 +2287,7 @@
       <c r="M19" s="26"/>
       <c r="O19" s="26"/>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -2160,7 +2303,7 @@
       <c r="M20" s="26"/>
       <c r="O20" s="26"/>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -2176,7 +2319,7 @@
       <c r="M21" s="26"/>
       <c r="O21" s="26"/>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -2192,9 +2335,9 @@
       <c r="M22" s="26"/>
       <c r="O22" s="26"/>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -2210,15 +2353,15 @@
       <c r="M23" s="26"/>
       <c r="O23" s="26"/>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>69</v>
+      <c r="C24" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -2235,9 +2378,9 @@
       <c r="W24" s="33"/>
       <c r="X24" s="33"/>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -2258,9 +2401,9 @@
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -2277,7 +2420,7 @@
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
     </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -2294,7 +2437,7 @@
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
     </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
@@ -2310,7 +2453,7 @@
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
     </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
@@ -2326,7 +2469,7 @@
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -2342,7 +2485,7 @@
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
@@ -2358,7 +2501,7 @@
       <c r="N31" s="26"/>
       <c r="O31" s="26"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -2374,7 +2517,7 @@
       <c r="N32" s="26"/>
       <c r="O32" s="26"/>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -2390,7 +2533,7 @@
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
@@ -2406,7 +2549,7 @@
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -2416,7 +2559,7 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -2426,42 +2569,41 @@
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
     </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
     </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2469,28 +2611,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="1" sqref="Q1 E38"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="8" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="8.83"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="1018" width="8.7109375" customWidth="1"/>
+    <col min="1019" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -2501,411 +2640,411 @@
         <v>14</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="G1" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>76</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>80</v>
-      </c>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="41" t="s">
+      <c r="E10" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>80</v>
-      </c>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="20"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="13" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="41"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -2913,7 +3052,7 @@
       <c r="E24" s="26"/>
       <c r="F24" s="45"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="18"/>
       <c r="C25" s="26"/>
@@ -2921,7 +3060,7 @@
       <c r="E25" s="26"/>
       <c r="F25" s="45"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="18"/>
       <c r="C26" s="26"/>
@@ -2929,7 +3068,7 @@
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="18"/>
       <c r="C27" s="26"/>
@@ -2937,7 +3076,7 @@
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="46"/>
       <c r="C28" s="26"/>
@@ -2945,7 +3084,7 @@
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="18"/>
       <c r="C29" s="26"/>
@@ -2953,7 +3092,7 @@
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="18"/>
       <c r="C30" s="26"/>
@@ -2961,7 +3100,7 @@
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="18"/>
       <c r="C31" s="26"/>
@@ -2969,9 +3108,9 @@
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
@@ -2979,113 +3118,113 @@
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>69</v>
+      <c r="C33" t="s">
+        <v>67</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>69</v>
+      <c r="C34" t="s">
+        <v>67</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>69</v>
+      <c r="C35" t="s">
+        <v>67</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>69</v>
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>69</v>
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
     </row>
-    <row r="38" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>69</v>
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
@@ -3093,7 +3232,7 @@
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -3101,14 +3240,14 @@
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
       <c r="F43" s="26"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
@@ -3116,7 +3255,7 @@
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
@@ -3124,7 +3263,7 @@
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
@@ -3132,7 +3271,7 @@
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
@@ -3140,7 +3279,7 @@
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -3149,10 +3288,9 @@
       <c r="F48" s="26"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3160,36 +3298,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5173" ySplit="0" topLeftCell="E1" activePane="topRight" state="split"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J11" activeCellId="1" sqref="Q1 J11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5490" topLeftCell="E1" activePane="topRight"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="8.67"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
+    <col min="14" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -3200,86 +3334,86 @@
         <v>14</v>
       </c>
       <c r="D1" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="I1" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="J1" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="K1" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="L1" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="M1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L2" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
       <c r="F3" s="52"/>
       <c r="G3" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -3287,50 +3421,50 @@
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="45"/>
       <c r="M4" s="45"/>
     </row>
-    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -3339,18 +3473,18 @@
       <c r="L5" s="45"/>
       <c r="M5" s="45"/>
     </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
@@ -3358,25 +3492,25 @@
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L6" s="45"/>
       <c r="M6" s="45"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
@@ -3386,13 +3520,13 @@
       <c r="L7" s="26"/>
       <c r="M7" s="45"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -3403,17 +3537,17 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M8" s="45"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
@@ -3424,17 +3558,17 @@
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M9" s="45"/>
     </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3444,18 +3578,18 @@
       <c r="I10" s="55"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L10" s="26"/>
       <c r="M10" s="45"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
@@ -3465,18 +3599,18 @@
       <c r="I11" s="55"/>
       <c r="J11" s="26"/>
       <c r="K11" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="26"/>
       <c r="M11" s="45"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -3486,18 +3620,18 @@
       <c r="I12" s="55"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L12" s="26"/>
       <c r="M12" s="45"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -3507,18 +3641,18 @@
       <c r="I13" s="55"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L13" s="26"/>
       <c r="M13" s="45"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -3528,12 +3662,12 @@
       <c r="I14" s="55"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L14" s="45"/>
       <c r="M14" s="45"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="6"/>
       <c r="C15" s="54"/>
@@ -3548,7 +3682,7 @@
       <c r="L15" s="45"/>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="6"/>
       <c r="C16" s="54"/>
@@ -3563,9 +3697,9 @@
       <c r="L16" s="45"/>
       <c r="M16" s="45"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -3578,40 +3712,40 @@
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="45"/>
       <c r="M18" s="45"/>
     </row>
-    <row r="19" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -3619,32 +3753,32 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J19" s="26"/>
       <c r="K19" s="26"/>
       <c r="L19" s="45"/>
       <c r="M19" s="53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L20" s="45"/>
       <c r="M20" s="45"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -3656,7 +3790,7 @@
       <c r="L21" s="45"/>
       <c r="M21" s="45"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -3671,9 +3805,9 @@
       <c r="L22" s="45"/>
       <c r="M22" s="45"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -3688,9 +3822,9 @@
       <c r="L23" s="45"/>
       <c r="M23" s="45"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -3705,9 +3839,9 @@
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -3722,7 +3856,7 @@
       <c r="L25" s="45"/>
       <c r="M25" s="45"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -3737,7 +3871,7 @@
       <c r="L26" s="45"/>
       <c r="M26" s="45"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
@@ -3752,7 +3886,7 @@
       <c r="L27" s="45"/>
       <c r="M27" s="45"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -3767,7 +3901,7 @@
       <c r="L28" s="45"/>
       <c r="M28" s="45"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -3782,7 +3916,7 @@
       <c r="L29" s="45"/>
       <c r="M29" s="45"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
@@ -3797,7 +3931,7 @@
       <c r="L30" s="45"/>
       <c r="M30" s="45"/>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -3805,16 +3939,15 @@
       <c r="E31" s="55"/>
       <c r="F31" s="55"/>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3822,87 +3955,83 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="1" sqref="Q1 G7"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="37.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
